--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2011 (F11).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2011 (F11).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,434 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artisan of Kozilek</t>
+          <t>('Artisan of Kozilek', ['{9}', 'Creature — Eldrazi', 'When you cast this spell, you may return target creature card from your graveyard to the battlefield.', 'Annihilator 2 (Whenever this creature attacks, defending player sacrifices two permanents.)', '10/9'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{9}</t>
+          <t>('Contagion Clasp', ['{2}', 'Artifact', 'When Contagion Clasp enters the battlefield, put a -1/-1 counter on target creature.', '{4}, {T}: Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Eldrazi</t>
+          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When you cast this spell, you may return target creature card from your graveyard to the battlefield.</t>
+          <t>('Everflowing Chalice', ['{0}', 'Artifact', 'Multikicker {2} (You may pay an additional {2} any number of times as you cast this spell.)', 'Everflowing Chalice enters the battlefield with a charge counter on it for each time it was kicked.', '{T}: Add {C} for each charge counter on Everflowing Chalice.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Annihilator 2 (Whenever this creature attacks, defending player sacrifices two permanents.)</t>
+          <t>('Go for the Throat', ['{1}{B}', 'Instant', 'Destroy target nonartifact creature.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10/9</t>
+          <t>("Jace's Ingenuity", ['{3}{U}{U}', 'Instant', 'Draw three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Contagion Clasp</t>
+          <t>('Rhox War Monk', ['{G}{W}{U}', 'Creature — Rhino Monk', 'Lifelink', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{2}</t>
+          <t>('Savage Lands', ['Land', 'Savage Lands enters the battlefield tapped.', '{T}: Add {B}, {R}, or {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>('Spellstutter Sprite', ['{1}{U}', 'Creature — Faerie Wizard', 'Flash', 'Flying', 'When Spellstutter Sprite enters the battlefield, counter target spell with converted mana cost X or less, where X is the number of Faeries you control.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>When Contagion Clasp enters the battlefield, put a -1/-1 counter on target creature.</t>
+          <t>('Squadron Hawk', ['{1}{W}', 'Creature — Bird', 'Flying', 'When Squadron Hawk enters the battlefield, you may search your library for up to three cards named Squadron Hawk, reveal them, put them into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{4}, {T}: Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+          <t>('Teetering Peaks', ['Land', 'Teetering Peaks enters the battlefield tapped.', 'When Teetering Peaks enters the battlefield, target creature gets +2/+0 until end of turn.', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cultivate</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Everflowing Chalice</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Multikicker {2} (You may pay an additional {2} any number of times as you cast this spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Everflowing Chalice enters the battlefield with a charge counter on it for each time it was kicked.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{T}: Add {C} for each charge counter on Everflowing Chalice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Go for the Throat</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Destroy target nonartifact creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Jace's Ingenuity</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Draw three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Rhox War Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{G}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Creature — Rhino Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Savage Lands</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Savage Lands enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{T}: Add {B}, {R}, or {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Spellstutter Sprite</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Faerie Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>When Spellstutter Sprite enters the battlefield, counter target spell with converted mana cost X or less, where X is the number of Faeries you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Squadron Hawk</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>When Squadron Hawk enters the battlefield, you may search your library for up to three cards named Squadron Hawk, reveal them, put them into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Teetering Peaks</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Teetering Peaks enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>When Teetering Peaks enters the battlefield, target creature gets +2/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{T}: Add {R}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Wall of Omens</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Creature — Wall</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>When Wall of Omens enters the battlefield, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>0/4</t>
+          <t>('Wall of Omens', ['{1}{W}', 'Creature — Wall', 'Defender', 'When Wall of Omens enters the battlefield, draw a card.', '0/4'])</t>
         </is>
       </c>
     </row>
